--- a/test.xlsx
+++ b/test.xlsx
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -213,12 +213,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -594,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M40"/>
+  <dimension ref="B2:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,252 +609,268 @@
     <col width="7.57" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="9.140000000000001" customWidth="1" min="8" max="8"/>
-    <col width="10.42" customWidth="1" min="9" max="9"/>
+    <col width="9.140000000000001" customWidth="1" min="9" max="9"/>
+    <col width="10.42" customWidth="1" min="10" max="10"/>
+    <col width="16.28" customWidth="1" min="11" max="11"/>
+    <col width="13.85" customWidth="1" min="12" max="12"/>
+    <col width="15.85" customWidth="1" min="13" max="13"/>
+    <col width="3.71" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>АО  "ПО "СЕВМАШ"</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>"ЗА ИСПОЛНЕНИЕ ОБЯЗАННОСТЕЙ ВРЕМЕННО ОТСУТСТВУЮЩЕГО РАБОТНИКА"</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="E2" s="1" t="inlineStr">
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Руководствуясь положение 56.61-1.01.014.-2020, возложить частичное исполнение обязанностей временно</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="1" t="inlineStr">
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Цех (отдел)      НИТИЦ</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>отсутствующего работника с установлением оплаты видом 199 ведомостью РВО на следующих работников:</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>СОГЛАШЕНИЕ-РАСЧЕТ ОПЛАТЫ</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="1" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1"/>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>от  01 января 0 г. № 25.17/0    за январь 0 г.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="2" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1"/>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Отсутствующий работник, вакантная должность</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Работник исполняющий обязанности временно отсутствующего</t>
         </is>
       </c>
-      <c r="I9" s="3" t="n"/>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="n"/>
-      <c r="M9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="4" t="n"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Фамилия И.О., таб. №	</t>
         </is>
       </c>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Причина отсутствия</t>
         </is>
       </c>
-      <c r="F10" s="6" t="n"/>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>Тариф (оклад), руб</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Фамилия И.О., таб. №</t>
         </is>
       </c>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="I11" s="7" t="n"/>
+      <c r="J11" s="6" t="n"/>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>Предварительный % оплаты от тарифа (оклада) отсутствующего</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Согласие на исполнение, подпись, дата</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>Окончательный размер оплаты, руб.</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="9" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="8" t="n"/>
-      <c r="I11" s="10" t="n"/>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-    </row>
-    <row r="12">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="B12" s="5" t="n"/>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Профессия (должность),  разряд</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Период отсутствия</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="9" t="n"/>
       <c r="G12" s="5" t="n"/>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Профессия (должность), разряд</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="6" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="J12" s="9" t="n"/>
       <c r="K12" s="5" t="n"/>
       <c r="L12" s="5" t="n"/>
       <c r="M12" s="5" t="n"/>
     </row>
-    <row r="13">
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="9" t="n"/>
-      <c r="G13" s="11" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="10" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="11" t="n"/>
-      <c r="L13" s="11" t="n"/>
-      <c r="M13" s="11" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="12" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="15" t="n"/>
-      <c r="F14" s="6" t="n"/>
-      <c r="G14" s="12" t="n"/>
-      <c r="H14" s="13" t="n"/>
-      <c r="I14" s="16" t="n"/>
-      <c r="J14" s="14" t="n"/>
-      <c r="K14" s="12" t="n"/>
-      <c r="L14" s="12" t="n"/>
-      <c r="M14" s="12" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="11" t="n"/>
-      <c r="C15" s="17" t="n"/>
-      <c r="D15" s="18" t="n"/>
-      <c r="E15" s="19" t="n"/>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Профессия (должность),  разряд</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Период отсутствия</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Профессия (должность), разряд</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="5" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="12" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="12" t="n"/>
+      <c r="I14" s="14" t="n"/>
+      <c r="J14" s="13" t="n"/>
+      <c r="K14" s="11" t="n"/>
+      <c r="L14" s="11" t="n"/>
+      <c r="M14" s="11" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="B15" s="15" t="n"/>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="18" t="n"/>
       <c r="F15" s="9" t="n"/>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="17" t="n"/>
-      <c r="I15" s="20" t="n"/>
-      <c r="J15" s="18" t="n"/>
-      <c r="K15" s="11" t="n"/>
-      <c r="L15" s="11" t="n"/>
-      <c r="M15" s="11" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="21" t="inlineStr">
-        <is>
-          <t>Начальник НИТИЦ______________/А.И. Власов / Мастер (руководитель работ)____________/____________Начальник БОТиЗ____________/Н.А.Львова/</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                  подпись,дата                                                                                подпись,дата                                                        подпись,дата</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="M40" s="22" t="inlineStr">
+      <c r="G15" s="15" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="19" t="n"/>
+      <c r="J15" s="17" t="n"/>
+      <c r="K15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+      <c r="M15" s="15" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="17" ht="13.5" customHeight="1"/>
+    <row r="18" ht="13.5" customHeight="1"/>
+    <row r="19" ht="13.5" customHeight="1"/>
+    <row r="20" ht="13.5" customHeight="1"/>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="23" ht="13.5" customHeight="1"/>
+    <row r="24" ht="13.5" customHeight="1"/>
+    <row r="25" ht="13.5" customHeight="1"/>
+    <row r="26" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="28" ht="13.5" customHeight="1"/>
+    <row r="29" ht="13.5" customHeight="1"/>
+    <row r="30" ht="13.5" customHeight="1"/>
+    <row r="31" ht="13.5" customHeight="1"/>
+    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="33" ht="13.5" customHeight="1"/>
+    <row r="34" ht="13.5" customHeight="1"/>
+    <row r="35" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="38" ht="13.5" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="B39" s="20" t="inlineStr">
+        <is>
+          <t>Начальник НИТИЦ________________/А.И. Власов / Мастер (руководитель работ)________________/________________Начальник БОТиЗ________________/Н.А.Львова/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="B40" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                  подпись,дата                                                                                          подпись,дата                                                                            подпись,дата</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1">
+      <c r="M41" s="21" t="inlineStr">
         <is>
           <t>ф.56.61.70</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="C12:D13"/>
+  <mergeCells count="21">
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="M11:M14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="H13:J14"/>
     <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="C11:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="C13:D14"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E13:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H12:J13"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions verticalCentered="1"/>
+  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.4724409448818898" bottom="0.5118110236220472" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>